--- a/Experimentos2/PSO.xlsx
+++ b/Experimentos2/PSO.xlsx
@@ -500,7 +500,7 @@
         <v>2.5</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -522,7 +522,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5669999999999999</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -554,7 +554,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.616</v>
+        <v>0.491</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -562,7 +562,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.708</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -570,7 +570,47 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.744</v>
+        <v>0.489</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.497</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.539</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.578</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.6820000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -580,7 +620,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -636,7 +676,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.514</v>
+        <v>0.154</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -644,7 +684,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.615</v>
+        <v>0.303</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -652,7 +692,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.421</v>
+        <v>0.669</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -660,7 +700,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.662</v>
+        <v>0.768</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -668,7 +708,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.625</v>
+        <v>0.598</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -676,7 +716,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.489</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -684,7 +724,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.634</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -692,7 +732,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.793</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -700,7 +740,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.894</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -708,7 +748,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.269</v>
+        <v>0.264</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -716,7 +756,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.714</v>
+        <v>0.208</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -724,7 +764,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.904</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -740,7 +780,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8</v>
+        <v>0.9379999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -748,7 +788,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.32</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -756,7 +796,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.847</v>
+        <v>0.268</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -764,7 +804,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -788,7 +828,207 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.471</v>
+        <v>0.376</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0.216</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>0.193</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>0.955</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>0.459</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>0.358</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>0.9409999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>0.535</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>0.324</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>0.431</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>0.981</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>0.6830000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>0.472</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>0.367</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>0.986</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>0.787</v>
       </c>
     </row>
   </sheetData>
@@ -798,7 +1038,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -822,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -838,7 +1078,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -846,7 +1086,47 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
         <v>5</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1194,7 +1474,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1222,19 +1502,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.733</v>
+        <v>0.597</v>
       </c>
       <c r="C2">
-        <v>0.162</v>
+        <v>0.164</v>
       </c>
       <c r="D2">
-        <v>0.986</v>
+        <v>0.49</v>
       </c>
       <c r="E2">
-        <v>0.701</v>
+        <v>0.721</v>
       </c>
       <c r="F2">
-        <v>0.895</v>
+        <v>0.786</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1242,19 +1522,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.21</v>
+        <v>0.144</v>
       </c>
       <c r="C3">
-        <v>0.443</v>
+        <v>0.358</v>
       </c>
       <c r="D3">
-        <v>0.609</v>
+        <v>0.861</v>
       </c>
       <c r="E3">
-        <v>0.835</v>
+        <v>0.981</v>
       </c>
       <c r="F3">
-        <v>0.286</v>
+        <v>0.772</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1262,19 +1542,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.855</v>
+        <v>0.878</v>
       </c>
       <c r="C4">
-        <v>0.58</v>
+        <v>0.18</v>
       </c>
       <c r="D4">
-        <v>0.864</v>
+        <v>0.011</v>
       </c>
       <c r="E4">
-        <v>0.539</v>
+        <v>0.346</v>
       </c>
       <c r="F4">
-        <v>0.602</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1282,19 +1562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.63</v>
+        <v>0.132</v>
       </c>
       <c r="C5">
-        <v>0.994</v>
+        <v>0.716</v>
       </c>
       <c r="D5">
-        <v>0.59</v>
+        <v>0.023</v>
       </c>
       <c r="E5">
-        <v>0.842</v>
+        <v>0.265</v>
       </c>
       <c r="F5">
-        <v>0.117</v>
+        <v>0.622</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1302,19 +1582,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.376</v>
+        <v>0.545</v>
       </c>
       <c r="C6">
-        <v>0.931</v>
+        <v>0.6850000000000001</v>
       </c>
       <c r="D6">
-        <v>0.674</v>
+        <v>0.096</v>
       </c>
       <c r="E6">
-        <v>0.802</v>
+        <v>0.909</v>
       </c>
       <c r="F6">
-        <v>0.058</v>
+        <v>0.858</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1322,19 +1602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.714</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C7">
-        <v>0.968</v>
+        <v>0.765</v>
       </c>
       <c r="D7">
-        <v>0.351</v>
+        <v>0.672</v>
       </c>
       <c r="E7">
-        <v>0.601</v>
+        <v>0.171</v>
       </c>
       <c r="F7">
-        <v>0.793</v>
+        <v>0.206</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1342,19 +1622,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.669</v>
+        <v>0.146</v>
       </c>
       <c r="C8">
-        <v>0.839</v>
+        <v>0.445</v>
       </c>
       <c r="D8">
-        <v>0.507</v>
+        <v>0.716</v>
       </c>
       <c r="E8">
-        <v>0.786</v>
+        <v>0.841</v>
       </c>
       <c r="F8">
-        <v>0.856</v>
+        <v>0.196</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1362,19 +1642,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.633</v>
+        <v>0.213</v>
       </c>
       <c r="C9">
-        <v>0.156</v>
+        <v>0.604</v>
       </c>
       <c r="D9">
-        <v>0.952</v>
+        <v>0.105</v>
       </c>
       <c r="E9">
-        <v>0.784</v>
+        <v>0.873</v>
       </c>
       <c r="F9">
-        <v>0.921</v>
+        <v>0.984</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1382,19 +1662,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.357</v>
+        <v>0.892</v>
       </c>
       <c r="C10">
-        <v>0.388</v>
+        <v>0.65</v>
       </c>
       <c r="D10">
-        <v>0.013</v>
+        <v>0.348</v>
       </c>
       <c r="E10">
-        <v>0.244</v>
+        <v>0.262</v>
       </c>
       <c r="F10">
-        <v>0.228</v>
+        <v>0.9429999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1402,19 +1682,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.52</v>
+        <v>0.425</v>
       </c>
       <c r="C11">
-        <v>0.124</v>
+        <v>0.125</v>
       </c>
       <c r="D11">
-        <v>0.6820000000000001</v>
+        <v>0.335</v>
       </c>
       <c r="E11">
-        <v>0.479</v>
+        <v>0.493</v>
       </c>
       <c r="F11">
-        <v>0.57</v>
+        <v>0.494</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1422,19 +1702,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.147</v>
+        <v>0.101</v>
       </c>
       <c r="C12">
-        <v>0.31</v>
+        <v>0.251</v>
       </c>
       <c r="D12">
-        <v>0.426</v>
+        <v>0.603</v>
       </c>
       <c r="E12">
-        <v>0.584</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="F12">
-        <v>0.2</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1442,19 +1722,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.593</v>
+        <v>0.609</v>
       </c>
       <c r="C13">
-        <v>0.396</v>
+        <v>0.116</v>
       </c>
       <c r="D13">
-        <v>0.605</v>
+        <v>0.008</v>
       </c>
       <c r="E13">
-        <v>0.387</v>
+        <v>0.252</v>
       </c>
       <c r="F13">
-        <v>0.437</v>
+        <v>0.052</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1462,19 +1742,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.429</v>
+        <v>0.08</v>
       </c>
       <c r="C14">
-        <v>0.675</v>
+        <v>0.481</v>
       </c>
       <c r="D14">
-        <v>0.419</v>
+        <v>0.022</v>
       </c>
       <c r="E14">
-        <v>0.634</v>
+        <v>0.23</v>
       </c>
       <c r="F14">
-        <v>0.104</v>
+        <v>0.457</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1482,19 +1762,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.246</v>
+        <v>0.364</v>
       </c>
       <c r="C15">
-        <v>0.623</v>
+        <v>0.451</v>
       </c>
       <c r="D15">
-        <v>0.463</v>
+        <v>0.059</v>
       </c>
       <c r="E15">
-        <v>0.554</v>
+        <v>0.629</v>
       </c>
       <c r="F15">
-        <v>0.064</v>
+        <v>0.624</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1502,19 +1782,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.477</v>
+        <v>0.544</v>
       </c>
       <c r="C16">
-        <v>0.639</v>
+        <v>0.497</v>
       </c>
       <c r="D16">
-        <v>0.246</v>
+        <v>0.47</v>
       </c>
       <c r="E16">
-        <v>0.465</v>
+        <v>0.164</v>
       </c>
       <c r="F16">
-        <v>0.579</v>
+        <v>0.168</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1522,19 +1802,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.439</v>
+        <v>0.073</v>
       </c>
       <c r="C17">
-        <v>0.54</v>
+        <v>0.264</v>
       </c>
       <c r="D17">
-        <v>0.355</v>
+        <v>0.501</v>
       </c>
       <c r="E17">
-        <v>0.615</v>
+        <v>0.654</v>
       </c>
       <c r="F17">
-        <v>0.623</v>
+        <v>0.161</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1542,19 +1822,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.409</v>
+        <v>0.115</v>
       </c>
       <c r="C18">
-        <v>0.054</v>
+        <v>0.368</v>
       </c>
       <c r="D18">
-        <v>0.666</v>
+        <v>0.073</v>
       </c>
       <c r="E18">
-        <v>0.637</v>
+        <v>0.699</v>
       </c>
       <c r="F18">
-        <v>0.669</v>
+        <v>0.713</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1562,19 +1842,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.21</v>
+        <v>0.585</v>
       </c>
       <c r="C19">
-        <v>0.208</v>
+        <v>0.392</v>
       </c>
       <c r="D19">
-        <v>0.008999999999999999</v>
+        <v>0.244</v>
       </c>
       <c r="E19">
-        <v>0.228</v>
+        <v>0.241</v>
       </c>
       <c r="F19">
-        <v>0.184</v>
+        <v>0.6850000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1582,19 +1862,19 @@
         <v>18</v>
       </c>
       <c r="B20">
+        <v>-0.621</v>
+      </c>
+      <c r="C20">
+        <v>0.076</v>
+      </c>
+      <c r="D20">
+        <v>0.46</v>
+      </c>
+      <c r="E20">
+        <v>0.102</v>
+      </c>
+      <c r="F20">
         <v>-0.313</v>
-      </c>
-      <c r="C20">
-        <v>0.718</v>
-      </c>
-      <c r="D20">
-        <v>-0.873</v>
-      </c>
-      <c r="E20">
-        <v>-0.067</v>
-      </c>
-      <c r="F20">
-        <v>-0.377</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1602,19 +1882,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.349</v>
+        <v>-0.047</v>
       </c>
       <c r="C21">
-        <v>0.041</v>
+        <v>-0.386</v>
       </c>
       <c r="D21">
-        <v>-0.263</v>
+        <v>-0.162</v>
       </c>
       <c r="E21">
-        <v>-0.313</v>
+        <v>-0.361</v>
       </c>
       <c r="F21">
-        <v>0.045</v>
+        <v>-0.302</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1622,19 +1902,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.456</v>
+        <v>-0.964</v>
       </c>
       <c r="C22">
-        <v>-0.278</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="D22">
-        <v>-0.6840000000000001</v>
+        <v>1.237</v>
       </c>
       <c r="E22">
-        <v>0.179</v>
+        <v>0.712</v>
       </c>
       <c r="F22">
-        <v>-0.174</v>
+        <v>0.195</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1642,19 +1922,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.169</v>
+        <v>-0.021</v>
       </c>
       <c r="C23">
-        <v>-1.288</v>
+        <v>-1.231</v>
       </c>
       <c r="D23">
-        <v>-0.24</v>
+        <v>1.21</v>
       </c>
       <c r="E23">
-        <v>-0.391</v>
+        <v>0.8</v>
       </c>
       <c r="F23">
-        <v>0.161</v>
+        <v>-0.199</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1662,19 +1942,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.154</v>
+        <v>-0.536</v>
       </c>
       <c r="C24">
-        <v>-1.11</v>
+        <v>-1.132</v>
       </c>
       <c r="D24">
-        <v>-0.358</v>
+        <v>1.109</v>
       </c>
       <c r="E24">
-        <v>-0.247</v>
+        <v>-0.227</v>
       </c>
       <c r="F24">
-        <v>0.202</v>
+        <v>-0.362</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1682,19 +1962,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-0.265</v>
+        <v>-0.864</v>
       </c>
       <c r="C25">
-        <v>-1.178</v>
+        <v>-1.307</v>
       </c>
       <c r="D25">
-        <v>0.161</v>
+        <v>0.15</v>
       </c>
       <c r="E25">
-        <v>0.022</v>
+        <v>0.962</v>
       </c>
       <c r="F25">
-        <v>-0.306</v>
+        <v>0.08799999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1702,19 +1982,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.204</v>
+        <v>-0.026</v>
       </c>
       <c r="C26">
-        <v>-0.831</v>
+        <v>-0.48</v>
       </c>
       <c r="D26">
-        <v>-0.096</v>
+        <v>0.078</v>
       </c>
       <c r="E26">
-        <v>-0.323</v>
+        <v>-0.215</v>
       </c>
       <c r="F26">
-        <v>-0.349</v>
+        <v>0.096</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1722,19 +2002,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-0.155</v>
+        <v>-0.107</v>
       </c>
       <c r="C27">
-        <v>0.903</v>
+        <v>-0.861</v>
       </c>
       <c r="D27">
-        <v>-0.827</v>
+        <v>1.084</v>
       </c>
       <c r="E27">
-        <v>-0.354</v>
+        <v>-0.302</v>
       </c>
       <c r="F27">
-        <v>-0.394</v>
+        <v>-0.449</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1742,19 +2022,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.196</v>
+        <v>-0.955</v>
       </c>
       <c r="C28">
-        <v>0.343</v>
+        <v>-0.955</v>
       </c>
       <c r="D28">
-        <v>0.718</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="E28">
-        <v>0.615</v>
+        <v>0.787</v>
       </c>
       <c r="F28">
-        <v>0.08500000000000001</v>
+        <v>-0.421</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1762,19 +2042,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.092</v>
+        <v>-0.435</v>
       </c>
       <c r="C29">
-        <v>-0.019</v>
+        <v>-0.045</v>
       </c>
       <c r="D29">
-        <v>0.624</v>
+        <v>0.587</v>
       </c>
       <c r="E29">
-        <v>0.711</v>
+        <v>0.298</v>
       </c>
       <c r="F29">
-        <v>-0.313</v>
+        <v>-0.265</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1782,19 +2062,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.165</v>
+        <v>0.091</v>
       </c>
       <c r="C30">
-        <v>0.501</v>
+        <v>-0.27</v>
       </c>
       <c r="D30">
-        <v>0.991</v>
+        <v>0.897</v>
       </c>
       <c r="E30">
-        <v>0.821</v>
+        <v>0.502</v>
       </c>
       <c r="F30">
-        <v>0.017</v>
+        <v>-0.225</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1802,19 +2082,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.073</v>
+        <v>-0.675</v>
       </c>
       <c r="C31">
-        <v>0.745</v>
+        <v>-0.062</v>
       </c>
       <c r="D31">
-        <v>0.756</v>
+        <v>1.266</v>
       </c>
       <c r="E31">
-        <v>0.609</v>
+        <v>0.498</v>
       </c>
       <c r="F31">
-        <v>-0.129</v>
+        <v>0.134</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1822,19 +2102,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.104</v>
+        <v>0.09</v>
       </c>
       <c r="C32">
-        <v>-0.014</v>
+        <v>-0.862</v>
       </c>
       <c r="D32">
-        <v>0.98</v>
+        <v>1.247</v>
       </c>
       <c r="E32">
-        <v>0.864</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F32">
-        <v>0.111</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1842,19 +2122,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.138</v>
+        <v>-0.375</v>
       </c>
       <c r="C33">
-        <v>0.111</v>
+        <v>-0.792</v>
       </c>
       <c r="D33">
-        <v>1.037</v>
+        <v>1.176</v>
       </c>
       <c r="E33">
-        <v>0.791</v>
+        <v>0.442</v>
       </c>
       <c r="F33">
-        <v>0.141</v>
+        <v>-0.254</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1862,19 +2142,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.09</v>
+        <v>-0.605</v>
       </c>
       <c r="C34">
-        <v>0.063</v>
+        <v>-0.915</v>
       </c>
       <c r="D34">
-        <v>0.779</v>
+        <v>0.742</v>
       </c>
       <c r="E34">
-        <v>0.6850000000000001</v>
+        <v>0.673</v>
       </c>
       <c r="F34">
-        <v>-0.217</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1882,19 +2162,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.095</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="C35">
-        <v>0.306</v>
+        <v>-0.336</v>
       </c>
       <c r="D35">
-        <v>0.908</v>
+        <v>0.777</v>
       </c>
       <c r="E35">
-        <v>0.839</v>
+        <v>0.452</v>
       </c>
       <c r="F35">
-        <v>-0.247</v>
+        <v>0.06900000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1902,19 +2182,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.099</v>
+        <v>0.075</v>
       </c>
       <c r="C36">
-        <v>0.292</v>
+        <v>-0.603</v>
       </c>
       <c r="D36">
-        <v>0.656</v>
+        <v>1.159</v>
       </c>
       <c r="E36">
-        <v>0.858</v>
+        <v>0.495</v>
       </c>
       <c r="F36">
-        <v>-0.279</v>
+        <v>-0.315</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1922,19 +2202,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.137</v>
+        <v>-0.668</v>
       </c>
       <c r="C37">
-        <v>0.24</v>
+        <v>-0.668</v>
       </c>
       <c r="D37">
-        <v>0.503</v>
+        <v>0.477</v>
       </c>
       <c r="E37">
-        <v>0.43</v>
+        <v>0.551</v>
       </c>
       <c r="F37">
-        <v>0.059</v>
+        <v>-0.295</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1942,19 +2222,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.552</v>
+        <v>-0.294</v>
       </c>
       <c r="C38">
-        <v>0.056</v>
+        <v>-0.038</v>
       </c>
       <c r="D38">
-        <v>0.387</v>
+        <v>0.411</v>
       </c>
       <c r="E38">
-        <v>0.498</v>
+        <v>0.128</v>
       </c>
       <c r="F38">
-        <v>-0.112</v>
+        <v>-0.091</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1962,19 +2242,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.115</v>
+        <v>0.077</v>
       </c>
       <c r="C39">
-        <v>0.351</v>
+        <v>-0.189</v>
       </c>
       <c r="D39">
-        <v>0.694</v>
+        <v>0.628</v>
       </c>
       <c r="E39">
-        <v>0.575</v>
+        <v>0.407</v>
       </c>
       <c r="F39">
-        <v>0.012</v>
+        <v>-0.048</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1982,19 +2262,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.645</v>
+        <v>-0.462</v>
       </c>
       <c r="C40">
-        <v>0.489</v>
+        <v>-0.039</v>
       </c>
       <c r="D40">
-        <v>0.204</v>
+        <v>0.886</v>
       </c>
       <c r="E40">
-        <v>0.426</v>
+        <v>0.613</v>
       </c>
       <c r="F40">
-        <v>-0.02</v>
+        <v>0.062</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2002,19 +2282,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.456</v>
+        <v>0.059</v>
       </c>
       <c r="C41">
-        <v>1.459</v>
+        <v>-0.603</v>
       </c>
       <c r="D41">
-        <v>0.6860000000000001</v>
+        <v>0.873</v>
       </c>
       <c r="E41">
-        <v>0.605</v>
+        <v>0.657</v>
       </c>
       <c r="F41">
-        <v>0.051</v>
+        <v>-0.011</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2022,19 +2302,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.243</v>
+        <v>-0.252</v>
       </c>
       <c r="C42">
-        <v>1.291</v>
+        <v>-0.554</v>
       </c>
       <c r="D42">
-        <v>0.726</v>
+        <v>0.823</v>
       </c>
       <c r="E42">
-        <v>0.554</v>
+        <v>0.327</v>
       </c>
       <c r="F42">
-        <v>0.06</v>
+        <v>-0.043</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2042,19 +2322,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.518</v>
+        <v>-0.413</v>
       </c>
       <c r="C43">
-        <v>1.356</v>
+        <v>-0.64</v>
       </c>
       <c r="D43">
-        <v>0.545</v>
+        <v>0.519</v>
       </c>
       <c r="E43">
-        <v>0.479</v>
+        <v>0.736</v>
       </c>
       <c r="F43">
-        <v>-0.04</v>
+        <v>0.047</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2062,19 +2342,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.477</v>
+        <v>0.06</v>
       </c>
       <c r="C44">
-        <v>1.029</v>
+        <v>-0.235</v>
       </c>
       <c r="D44">
-        <v>0.636</v>
+        <v>0.544</v>
       </c>
       <c r="E44">
-        <v>0.587</v>
+        <v>0.316</v>
       </c>
       <c r="F44">
-        <v>-0.049</v>
+        <v>0.048</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2082,19 +2362,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.444</v>
+        <v>0.114</v>
       </c>
       <c r="C45">
-        <v>0.417</v>
+        <v>-0.422</v>
       </c>
       <c r="D45">
-        <v>0.343</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="E45">
-        <v>0.601</v>
+        <v>0.368</v>
       </c>
       <c r="F45">
-        <v>-0.144</v>
+        <v>-0.166</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2102,19 +2382,919 @@
         <v>44</v>
       </c>
       <c r="B46">
+        <v>-0.457</v>
+      </c>
+      <c r="C46">
+        <v>-0.468</v>
+      </c>
+      <c r="D46">
+        <v>0.334</v>
+      </c>
+      <c r="E46">
+        <v>0.651</v>
+      </c>
+      <c r="F46">
+        <v>-0.152</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>-0.115</v>
+      </c>
+      <c r="C47">
+        <v>0.045</v>
+      </c>
+      <c r="D47">
+        <v>0.288</v>
+      </c>
+      <c r="E47">
+        <v>0.09</v>
+      </c>
+      <c r="F47">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>0.045</v>
+      </c>
+      <c r="C48">
+        <v>0.254</v>
+      </c>
+      <c r="D48">
+        <v>0.44</v>
+      </c>
+      <c r="E48">
+        <v>0.285</v>
+      </c>
+      <c r="F48">
+        <v>0.117</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>-0.233</v>
+      </c>
+      <c r="C49">
+        <v>0.057</v>
+      </c>
+      <c r="D49">
+        <v>0.62</v>
+      </c>
+      <c r="E49">
+        <v>0.429</v>
+      </c>
+      <c r="F49">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>0.039</v>
+      </c>
+      <c r="C50">
+        <v>-0.422</v>
+      </c>
+      <c r="D50">
+        <v>0.611</v>
+      </c>
+      <c r="E50">
+        <v>0.46</v>
+      </c>
+      <c r="F50">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>-0.08599999999999999</v>
+      </c>
+      <c r="C51">
+        <v>-0.388</v>
+      </c>
+      <c r="D51">
+        <v>0.576</v>
+      </c>
+      <c r="E51">
+        <v>0.229</v>
+      </c>
+      <c r="F51">
+        <v>0.045</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>-0.199</v>
+      </c>
+      <c r="C52">
+        <v>-0.448</v>
+      </c>
+      <c r="D52">
+        <v>0.363</v>
+      </c>
+      <c r="E52">
+        <v>0.515</v>
+      </c>
+      <c r="F52">
+        <v>0.035</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>0.042</v>
+      </c>
+      <c r="C53">
+        <v>-0.164</v>
+      </c>
+      <c r="D53">
+        <v>0.381</v>
+      </c>
+      <c r="E53">
+        <v>0.221</v>
+      </c>
+      <c r="F53">
+        <v>0.034</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="C54">
+        <v>-0.295</v>
+      </c>
+      <c r="D54">
+        <v>0.5679999999999999</v>
+      </c>
+      <c r="E54">
+        <v>0.258</v>
+      </c>
+      <c r="F54">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>-0.229</v>
+      </c>
+      <c r="C55">
+        <v>-0.328</v>
+      </c>
+      <c r="D55">
+        <v>0.234</v>
+      </c>
+      <c r="E55">
+        <v>0.456</v>
+      </c>
+      <c r="F55">
+        <v>0.034</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="C56">
+        <v>0.044</v>
+      </c>
+      <c r="D56">
+        <v>0.202</v>
+      </c>
+      <c r="E56">
+        <v>-0.11</v>
+      </c>
+      <c r="F56">
+        <v>0.219</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>-0.128</v>
+      </c>
+      <c r="C57">
+        <v>0.078</v>
+      </c>
+      <c r="D57">
+        <v>0.308</v>
+      </c>
+      <c r="E57">
+        <v>0.199</v>
+      </c>
+      <c r="F57">
+        <v>0.223</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>-0.163</v>
+      </c>
+      <c r="C58">
+        <v>0.04</v>
+      </c>
+      <c r="D58">
+        <v>0.434</v>
+      </c>
+      <c r="E58">
+        <v>0.3</v>
+      </c>
+      <c r="F58">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>-0.118</v>
+      </c>
+      <c r="C59">
+        <v>-0.263</v>
+      </c>
+      <c r="D59">
+        <v>0.428</v>
+      </c>
+      <c r="E59">
+        <v>0.322</v>
+      </c>
+      <c r="F59">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>0.054</v>
+      </c>
+      <c r="C60">
+        <v>-0.239</v>
+      </c>
+      <c r="D60">
+        <v>0.403</v>
+      </c>
+      <c r="E60">
+        <v>0.16</v>
+      </c>
+      <c r="F60">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>0.125</v>
+      </c>
+      <c r="C61">
+        <v>-0.281</v>
+      </c>
+      <c r="D61">
+        <v>0.254</v>
+      </c>
+      <c r="E61">
+        <v>0.36</v>
+      </c>
+      <c r="F61">
+        <v>0.052</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>-0.117</v>
+      </c>
+      <c r="C62">
+        <v>0.254</v>
+      </c>
+      <c r="D62">
+        <v>0.267</v>
+      </c>
+      <c r="E62">
+        <v>0.155</v>
+      </c>
+      <c r="F62">
+        <v>0.049</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>-0.145</v>
+      </c>
+      <c r="C63">
+        <v>-0.174</v>
+      </c>
+      <c r="D63">
+        <v>0.398</v>
+      </c>
+      <c r="E63">
+        <v>0.181</v>
+      </c>
+      <c r="F63">
+        <v>0.194</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>-0.16</v>
+      </c>
+      <c r="C64">
+        <v>-0.197</v>
+      </c>
+      <c r="D64">
+        <v>0.164</v>
+      </c>
+      <c r="E64">
+        <v>0.319</v>
+      </c>
+      <c r="F64">
+        <v>0.189</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>0.098</v>
+      </c>
+      <c r="C65">
+        <v>0.104</v>
+      </c>
+      <c r="D65">
+        <v>0.141</v>
+      </c>
+      <c r="E65">
+        <v>0.259</v>
+      </c>
+      <c r="F65">
+        <v>0.211</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>-0.08799999999999999</v>
+      </c>
+      <c r="C66">
+        <v>-0.054</v>
+      </c>
+      <c r="D66">
+        <v>0.216</v>
+      </c>
+      <c r="E66">
+        <v>0.055</v>
+      </c>
+      <c r="F66">
+        <v>0.197</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>0.093</v>
+      </c>
+      <c r="C67">
+        <v>0.098</v>
+      </c>
+      <c r="D67">
+        <v>0.304</v>
+      </c>
+      <c r="E67">
+        <v>0.507</v>
+      </c>
+      <c r="F67">
+        <v>-0.004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>-0.08</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0.3</v>
+      </c>
+      <c r="E68">
+        <v>0.523</v>
+      </c>
+      <c r="F68">
+        <v>0.152</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="C69">
+        <v>0.017</v>
+      </c>
+      <c r="D69">
+        <v>0.282</v>
+      </c>
+      <c r="E69">
+        <v>0.102</v>
+      </c>
+      <c r="F69">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>0.177</v>
+      </c>
+      <c r="C70">
+        <v>-0.013</v>
+      </c>
+      <c r="D70">
+        <v>0.178</v>
+      </c>
+      <c r="E70">
+        <v>0.549</v>
+      </c>
+      <c r="F70">
+        <v>0.037</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>-0.082</v>
+      </c>
+      <c r="C71">
+        <v>0.178</v>
+      </c>
+      <c r="D71">
+        <v>0.187</v>
+      </c>
+      <c r="E71">
+        <v>0.108</v>
+      </c>
+      <c r="F71">
+        <v>0.034</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>-0.111</v>
+      </c>
+      <c r="C72">
+        <v>0.418</v>
+      </c>
+      <c r="D72">
+        <v>0.279</v>
+      </c>
+      <c r="E72">
+        <v>0.077</v>
+      </c>
+      <c r="F72">
+        <v>0.222</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>0.091</v>
+      </c>
+      <c r="C73">
+        <v>0.449</v>
+      </c>
+      <c r="D73">
+        <v>-0.227</v>
+      </c>
+      <c r="E73">
+        <v>0.521</v>
+      </c>
+      <c r="F73">
         <v>0.213</v>
       </c>
-      <c r="C46">
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="C74">
+        <v>0.073</v>
+      </c>
+      <c r="D74">
+        <v>0.099</v>
+      </c>
+      <c r="E74">
+        <v>0.181</v>
+      </c>
+      <c r="F74">
+        <v>0.148</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>0.139</v>
+      </c>
+      <c r="C75">
+        <v>0.103</v>
+      </c>
+      <c r="D75">
+        <v>0.445</v>
+      </c>
+      <c r="E75">
+        <v>0.038</v>
+      </c>
+      <c r="F75">
+        <v>0.127</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>0.231</v>
+      </c>
+      <c r="C76">
+        <v>0.077</v>
+      </c>
+      <c r="D76">
+        <v>0.506</v>
+      </c>
+      <c r="E76">
+        <v>0.355</v>
+      </c>
+      <c r="F76">
+        <v>0.025</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>0.135</v>
+      </c>
+      <c r="C77">
+        <v>0.323</v>
+      </c>
+      <c r="D77">
+        <v>0.504</v>
+      </c>
+      <c r="E77">
+        <v>0.366</v>
+      </c>
+      <c r="F77">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="C78">
+        <v>0.3</v>
+      </c>
+      <c r="D78">
+        <v>0.491</v>
+      </c>
+      <c r="E78">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="F78">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>0.06</v>
+      </c>
+      <c r="C79">
+        <v>0.341</v>
+      </c>
+      <c r="D79">
+        <v>0.048</v>
+      </c>
+      <c r="E79">
+        <v>0.384</v>
+      </c>
+      <c r="F79">
+        <v>0.043</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>0.134</v>
+      </c>
+      <c r="C80">
+        <v>-0.1</v>
+      </c>
+      <c r="D80">
+        <v>0.035</v>
+      </c>
+      <c r="E80">
+        <v>0.076</v>
+      </c>
+      <c r="F80">
+        <v>0.042</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>0.143</v>
+      </c>
+      <c r="C81">
+        <v>0.117</v>
+      </c>
+      <c r="D81">
+        <v>0.489</v>
+      </c>
+      <c r="E81">
+        <v>0.054</v>
+      </c>
+      <c r="F81">
+        <v>0.179</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
         <v>0.229</v>
       </c>
-      <c r="D46">
-        <v>0.352</v>
-      </c>
-      <c r="E46">
+      <c r="C82">
+        <v>0.122</v>
+      </c>
+      <c r="D82">
+        <v>0.266</v>
+      </c>
+      <c r="E82">
+        <v>0.365</v>
+      </c>
+      <c r="F82">
+        <v>0.171</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>0.048</v>
+      </c>
+      <c r="C83">
+        <v>0.051</v>
+      </c>
+      <c r="D83">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="E83">
+        <v>0.127</v>
+      </c>
+      <c r="F83">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>0.205</v>
+      </c>
+      <c r="C84">
+        <v>0.152</v>
+      </c>
+      <c r="D84">
+        <v>0.311</v>
+      </c>
+      <c r="E84">
         <v>0.301</v>
       </c>
-      <c r="F46">
+      <c r="F84">
+        <v>0.08699999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>0.112</v>
+      </c>
+      <c r="C85">
+        <v>0.054</v>
+      </c>
+      <c r="D85">
+        <v>0.354</v>
+      </c>
+      <c r="E85">
+        <v>0.596</v>
+      </c>
+      <c r="F85">
+        <v>0.098</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>0.198</v>
+      </c>
+      <c r="C86">
         <v>0.038</v>
+      </c>
+      <c r="D86">
+        <v>0.353</v>
+      </c>
+      <c r="E86">
+        <v>0.604</v>
+      </c>
+      <c r="F86">
+        <v>0.08400000000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>0.068</v>
+      </c>
+      <c r="C87">
+        <v>0.034</v>
+      </c>
+      <c r="D87">
+        <v>0.344</v>
+      </c>
+      <c r="E87">
+        <v>0.261</v>
+      </c>
+      <c r="F87">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>-0.01</v>
+      </c>
+      <c r="C88">
+        <v>0.04</v>
+      </c>
+      <c r="D88">
+        <v>0.034</v>
+      </c>
+      <c r="E88">
+        <v>0.616</v>
+      </c>
+      <c r="F88">
+        <v>0.092</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>0.199</v>
+      </c>
+      <c r="C89">
+        <v>0.059</v>
+      </c>
+      <c r="D89">
+        <v>0.025</v>
+      </c>
+      <c r="E89">
+        <v>0.255</v>
+      </c>
+      <c r="F89">
+        <v>0.093</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>0.222</v>
+      </c>
+      <c r="C90">
+        <v>-0.184</v>
+      </c>
+      <c r="D90">
+        <v>0.342</v>
+      </c>
+      <c r="E90">
+        <v>0.282</v>
+      </c>
+      <c r="F90">
+        <v>0.136</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>0.112</v>
+      </c>
+      <c r="C91">
+        <v>-0.207</v>
+      </c>
+      <c r="D91">
+        <v>0.186</v>
+      </c>
+      <c r="E91">
+        <v>0.603</v>
+      </c>
+      <c r="F91">
+        <v>0.132</v>
       </c>
     </row>
   </sheetData>
@@ -2124,7 +3304,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2332,19 +3512,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5679999999999999</v>
+        <v>0.473</v>
       </c>
       <c r="C11">
-        <v>0.171</v>
+        <v>0.172</v>
       </c>
       <c r="D11">
-        <v>0.752</v>
+        <v>0.405</v>
       </c>
       <c r="E11">
-        <v>0.5659999999999999</v>
+        <v>0.58</v>
       </c>
       <c r="F11">
-        <v>0.76</v>
+        <v>0.6840000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2352,19 +3532,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.2</v>
+        <v>0.154</v>
       </c>
       <c r="C12">
-        <v>0.362</v>
+        <v>0.303</v>
       </c>
       <c r="D12">
-        <v>0.492</v>
+        <v>0.669</v>
       </c>
       <c r="E12">
-        <v>0.665</v>
+        <v>0.768</v>
       </c>
       <c r="F12">
-        <v>0.258</v>
+        <v>0.598</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2372,19 +3552,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.65</v>
+        <v>0.666</v>
       </c>
       <c r="C13">
-        <v>0.453</v>
+        <v>0.173</v>
       </c>
       <c r="D13">
-        <v>0.671</v>
+        <v>0.074</v>
       </c>
       <c r="E13">
-        <v>0.463</v>
+        <v>0.328</v>
       </c>
       <c r="F13">
-        <v>0.459</v>
+        <v>0.074</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2392,19 +3572,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.491</v>
+        <v>0.142</v>
       </c>
       <c r="C14">
-        <v>0.737</v>
+        <v>0.543</v>
       </c>
       <c r="D14">
-        <v>0.482</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="E14">
-        <v>0.6919999999999999</v>
+        <v>0.288</v>
       </c>
       <c r="F14">
-        <v>0.111</v>
+        <v>0.464</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2412,19 +3592,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.312</v>
+        <v>0.43</v>
       </c>
       <c r="C15">
-        <v>0.6889999999999999</v>
+        <v>0.517</v>
       </c>
       <c r="D15">
-        <v>0.533</v>
+        <v>0.129</v>
       </c>
       <c r="E15">
-        <v>0.639</v>
+        <v>0.714</v>
       </c>
       <c r="F15">
-        <v>0.068</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2432,19 +3612,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.547</v>
+        <v>0.614</v>
       </c>
       <c r="C16">
-        <v>0.71</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="D16">
-        <v>0.312</v>
+        <v>0.536</v>
       </c>
       <c r="E16">
-        <v>0.523</v>
+        <v>0.222</v>
       </c>
       <c r="F16">
-        <v>0.582</v>
+        <v>0.171</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2452,19 +3632,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.514</v>
+        <v>0.148</v>
       </c>
       <c r="C17">
-        <v>0.615</v>
+        <v>0.339</v>
       </c>
       <c r="D17">
-        <v>0.421</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="E17">
-        <v>0.662</v>
+        <v>0.701</v>
       </c>
       <c r="F17">
-        <v>0.625</v>
+        <v>0.163</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2472,19 +3652,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.488</v>
+        <v>0.194</v>
       </c>
       <c r="C18">
-        <v>0.133</v>
+        <v>0.447</v>
       </c>
       <c r="D18">
-        <v>0.732</v>
+        <v>0.139</v>
       </c>
       <c r="E18">
-        <v>0.672</v>
+        <v>0.734</v>
       </c>
       <c r="F18">
-        <v>0.671</v>
+        <v>0.715</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2492,19 +3672,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.293</v>
+        <v>0.668</v>
       </c>
       <c r="C19">
-        <v>0.291</v>
+        <v>0.475</v>
       </c>
       <c r="D19">
-        <v>0.075</v>
+        <v>0.31</v>
       </c>
       <c r="E19">
-        <v>0.279</v>
+        <v>0.292</v>
       </c>
       <c r="F19">
-        <v>0.184</v>
+        <v>0.6850000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2512,19 +3692,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.255</v>
+        <v>0.2</v>
       </c>
       <c r="C20">
-        <v>0.889</v>
+        <v>0.248</v>
       </c>
       <c r="D20">
-        <v>0.2</v>
+        <v>0.865</v>
       </c>
       <c r="E20">
-        <v>0.499</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="F20">
-        <v>0.383</v>
+        <v>0.371</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2532,19 +3712,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.549</v>
+        <v>0.107</v>
       </c>
       <c r="C21">
-        <v>0.403</v>
+        <v>0.2</v>
       </c>
       <c r="D21">
-        <v>0.229</v>
+        <v>0.507</v>
       </c>
       <c r="E21">
-        <v>0.352</v>
+        <v>0.407</v>
       </c>
       <c r="F21">
-        <v>0.303</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2552,19 +3732,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.194</v>
+        <v>0.2</v>
       </c>
       <c r="C22">
-        <v>0.175</v>
+        <v>0.26</v>
       </c>
       <c r="D22">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="E22">
-        <v>0.642</v>
+        <v>0.8</v>
       </c>
       <c r="F22">
-        <v>0.285</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2572,19 +3752,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.322</v>
+        <v>0.121</v>
       </c>
       <c r="C23">
         <v>0.2</v>
       </c>
       <c r="D23">
-        <v>0.242</v>
+        <v>0.8</v>
       </c>
       <c r="E23">
-        <v>0.301</v>
+        <v>0.8</v>
       </c>
       <c r="F23">
-        <v>0.272</v>
+        <v>0.265</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2592,19 +3772,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.466</v>
+        <v>0.2</v>
       </c>
       <c r="C24">
         <v>0.2</v>
       </c>
       <c r="D24">
-        <v>0.175</v>
+        <v>0.8</v>
       </c>
       <c r="E24">
-        <v>0.392</v>
+        <v>0.487</v>
       </c>
       <c r="F24">
-        <v>0.27</v>
+        <v>0.266</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2612,19 +3792,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.282</v>
+        <v>0.2</v>
       </c>
       <c r="C25">
         <v>0.2</v>
       </c>
       <c r="D25">
-        <v>0.473</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="E25">
-        <v>0.545</v>
+        <v>0.8</v>
       </c>
       <c r="F25">
-        <v>0.276</v>
+        <v>0.259</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2632,19 +3812,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.31</v>
+        <v>0.122</v>
       </c>
       <c r="C26">
         <v>0.2</v>
       </c>
       <c r="D26">
-        <v>0.325</v>
+        <v>0.645</v>
       </c>
       <c r="E26">
-        <v>0.339</v>
+        <v>0.486</v>
       </c>
       <c r="F26">
-        <v>0.276</v>
+        <v>0.259</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2652,19 +3832,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.333</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="C27">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="D27">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="E27">
-        <v>0.318</v>
+        <v>0.432</v>
       </c>
       <c r="F27">
-        <v>0.277</v>
+        <v>0.266</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2672,19 +3852,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.489</v>
+        <v>0.2</v>
       </c>
       <c r="C28">
-        <v>0.634</v>
+        <v>0.2</v>
       </c>
       <c r="D28">
-        <v>0.793</v>
+        <v>0.992</v>
       </c>
       <c r="E28">
-        <v>0.894</v>
+        <v>0.8</v>
       </c>
       <c r="F28">
-        <v>0.269</v>
+        <v>0.264</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2692,19 +3872,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.347</v>
+        <v>0.2</v>
       </c>
       <c r="C29">
-        <v>0.87</v>
+        <v>0.203</v>
       </c>
       <c r="D29">
-        <v>0.824</v>
+        <v>0.8</v>
       </c>
       <c r="E29">
-        <v>0.8</v>
+        <v>0.98</v>
       </c>
       <c r="F29">
-        <v>0.07000000000000001</v>
+        <v>0.106</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2712,19 +3892,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.714</v>
+        <v>0.198</v>
       </c>
       <c r="C30">
-        <v>0.904</v>
+        <v>0.2</v>
       </c>
       <c r="D30">
         <v>0.8</v>
       </c>
       <c r="E30">
-        <v>0.8</v>
+        <v>0.909</v>
       </c>
       <c r="F30">
-        <v>0.32</v>
+        <v>0.07099999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2732,19 +3912,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.267</v>
+        <v>0.2</v>
       </c>
       <c r="C31">
-        <v>0.92</v>
+        <v>0.198</v>
       </c>
       <c r="D31">
-        <v>0.956</v>
+        <v>0.8</v>
       </c>
       <c r="E31">
         <v>0.8</v>
       </c>
       <c r="F31">
-        <v>0.156</v>
+        <v>0.403</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2752,10 +3932,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.426</v>
+        <v>0.211</v>
       </c>
       <c r="C32">
-        <v>0.186</v>
+        <v>0.2</v>
       </c>
       <c r="D32">
         <v>0.8</v>
@@ -2764,7 +3944,7 @@
         <v>0.8</v>
       </c>
       <c r="F32">
-        <v>0.383</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2772,19 +3952,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.604</v>
+        <v>0.2</v>
       </c>
       <c r="C33">
-        <v>0.311</v>
+        <v>0.2</v>
       </c>
       <c r="D33">
         <v>0.8</v>
       </c>
       <c r="E33">
-        <v>0.8</v>
+        <v>0.929</v>
       </c>
       <c r="F33">
-        <v>0.411</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2792,10 +3972,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.372</v>
+        <v>0.2</v>
       </c>
       <c r="C34">
-        <v>0.263</v>
+        <v>0.2</v>
       </c>
       <c r="D34">
         <v>0.8</v>
@@ -2804,7 +3984,7 @@
         <v>0.8</v>
       </c>
       <c r="F34">
-        <v>0.059</v>
+        <v>0.323</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2812,19 +3992,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.405</v>
+        <v>0.208</v>
       </c>
       <c r="C35">
-        <v>0.506</v>
+        <v>0.2</v>
       </c>
       <c r="D35">
         <v>0.8</v>
       </c>
       <c r="E35">
-        <v>0.8</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="F35">
-        <v>0.029</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2832,16 +4012,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.432</v>
+        <v>0.162</v>
       </c>
       <c r="C36">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="D36">
-        <v>0.856</v>
+        <v>0.8</v>
       </c>
       <c r="E36">
-        <v>0.8</v>
+        <v>0.927</v>
       </c>
       <c r="F36">
         <v>0.2</v>
@@ -2852,10 +4032,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.626</v>
+        <v>0.2</v>
       </c>
       <c r="C37">
-        <v>0.874</v>
+        <v>0.2</v>
       </c>
       <c r="D37">
         <v>0.8</v>
@@ -2864,7 +4044,7 @@
         <v>0.8</v>
       </c>
       <c r="F37">
-        <v>0.328</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2872,10 +4052,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.899</v>
+        <v>0.2</v>
       </c>
       <c r="C38">
-        <v>0.926</v>
+        <v>0.165</v>
       </c>
       <c r="D38">
         <v>0.8</v>
@@ -2884,7 +4064,7 @@
         <v>0.8</v>
       </c>
       <c r="F38">
-        <v>0.2</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2892,10 +4072,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.829</v>
+        <v>0.275</v>
       </c>
       <c r="C39">
-        <v>0.8</v>
+        <v>0.011</v>
       </c>
       <c r="D39">
         <v>0.8</v>
@@ -2904,7 +4084,7 @@
         <v>0.8</v>
       </c>
       <c r="F39">
-        <v>0.332</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2912,10 +4092,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.912</v>
+        <v>0.2</v>
       </c>
       <c r="C40">
-        <v>0.8</v>
+        <v>0.159</v>
       </c>
       <c r="D40">
         <v>0.8</v>
@@ -2924,7 +4104,7 @@
         <v>0.8</v>
       </c>
       <c r="F40">
-        <v>0.136</v>
+        <v>0.465</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2932,10 +4112,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.882</v>
+        <v>0.27</v>
       </c>
       <c r="C41">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="D41">
         <v>0.8</v>
@@ -2944,7 +4124,7 @@
         <v>0.8</v>
       </c>
       <c r="F41">
-        <v>0.434</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2952,10 +4132,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.847</v>
+        <v>0.2</v>
       </c>
       <c r="C42">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="D42">
         <v>0.8</v>
@@ -2964,7 +4144,7 @@
         <v>0.8</v>
       </c>
       <c r="F42">
-        <v>0.471</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2972,10 +4152,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.89</v>
+        <v>0.2</v>
       </c>
       <c r="C43">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="D43">
         <v>0.8</v>
@@ -2984,7 +4164,7 @@
         <v>0.8</v>
       </c>
       <c r="F43">
-        <v>0.019</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2992,10 +4172,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.882</v>
+        <v>0.268</v>
       </c>
       <c r="C44">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="D44">
         <v>0.8</v>
@@ -3004,7 +4184,7 @@
         <v>0.8</v>
       </c>
       <c r="F44">
-        <v>0.2</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -3012,10 +4192,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.876</v>
+        <v>0.276</v>
       </c>
       <c r="C45">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="D45">
         <v>0.8</v>
@@ -3024,7 +4204,7 @@
         <v>0.8</v>
       </c>
       <c r="F45">
-        <v>0.056</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -3032,10 +4212,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.839</v>
+        <v>0.2</v>
       </c>
       <c r="C46">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="D46">
         <v>0.8</v>
@@ -3044,7 +4224,907 @@
         <v>0.8</v>
       </c>
       <c r="F46">
-        <v>0.366</v>
+        <v>0.048</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="C47">
+        <v>0.21</v>
+      </c>
+      <c r="D47">
+        <v>0.8</v>
+      </c>
+      <c r="E47">
+        <v>0.89</v>
+      </c>
+      <c r="F47">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>0.32</v>
+      </c>
+      <c r="C48">
+        <v>0.265</v>
+      </c>
+      <c r="D48">
+        <v>0.8</v>
+      </c>
+      <c r="E48">
+        <v>0.8</v>
+      </c>
+      <c r="F48">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>0.2</v>
+      </c>
+      <c r="C49">
+        <v>0.216</v>
+      </c>
+      <c r="D49">
+        <v>0.8</v>
+      </c>
+      <c r="E49">
+        <v>0.8</v>
+      </c>
+      <c r="F49">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>0.309</v>
+      </c>
+      <c r="C50">
+        <v>0.2</v>
+      </c>
+      <c r="D50">
+        <v>0.8</v>
+      </c>
+      <c r="E50">
+        <v>0.8</v>
+      </c>
+      <c r="F50">
+        <v>0.218</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>0.114</v>
+      </c>
+      <c r="C51">
+        <v>0.2</v>
+      </c>
+      <c r="D51">
+        <v>0.8</v>
+      </c>
+      <c r="E51">
+        <v>0.8</v>
+      </c>
+      <c r="F51">
+        <v>0.245</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>0.001</v>
+      </c>
+      <c r="C52">
+        <v>0.2</v>
+      </c>
+      <c r="D52">
+        <v>0.8</v>
+      </c>
+      <c r="E52">
+        <v>0.8</v>
+      </c>
+      <c r="F52">
+        <v>0.405</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>0.31</v>
+      </c>
+      <c r="C53">
+        <v>0.036</v>
+      </c>
+      <c r="D53">
+        <v>0.8</v>
+      </c>
+      <c r="E53">
+        <v>0.8</v>
+      </c>
+      <c r="F53">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>0.345</v>
+      </c>
+      <c r="C54">
+        <v>0.2</v>
+      </c>
+      <c r="D54">
+        <v>0.8</v>
+      </c>
+      <c r="E54">
+        <v>0.8</v>
+      </c>
+      <c r="F54">
+        <v>0.064</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>0.2</v>
+      </c>
+      <c r="C55">
+        <v>0.2</v>
+      </c>
+      <c r="D55">
+        <v>0.8</v>
+      </c>
+      <c r="E55">
+        <v>0.8</v>
+      </c>
+      <c r="F55">
+        <v>0.082</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>0.157</v>
+      </c>
+      <c r="C56">
+        <v>0.254</v>
+      </c>
+      <c r="D56">
+        <v>0.8</v>
+      </c>
+      <c r="E56">
+        <v>0.78</v>
+      </c>
+      <c r="F56">
+        <v>0.324</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>0.192</v>
+      </c>
+      <c r="C57">
+        <v>0.343</v>
+      </c>
+      <c r="D57">
+        <v>0.8</v>
+      </c>
+      <c r="E57">
+        <v>0.999</v>
+      </c>
+      <c r="F57">
+        <v>0.363</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>0.037</v>
+      </c>
+      <c r="C58">
+        <v>0.256</v>
+      </c>
+      <c r="D58">
+        <v>0.8</v>
+      </c>
+      <c r="E58">
+        <v>0.8</v>
+      </c>
+      <c r="F58">
+        <v>0.473</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>0.191</v>
+      </c>
+      <c r="C59">
+        <v>0.2</v>
+      </c>
+      <c r="D59">
+        <v>0.8</v>
+      </c>
+      <c r="E59">
+        <v>0.8</v>
+      </c>
+      <c r="F59">
+        <v>0.398</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>0.168</v>
+      </c>
+      <c r="C60">
+        <v>0.2</v>
+      </c>
+      <c r="D60">
+        <v>0.8</v>
+      </c>
+      <c r="E60">
+        <v>0.96</v>
+      </c>
+      <c r="F60">
+        <v>0.373</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>0.126</v>
+      </c>
+      <c r="C61">
+        <v>0.2</v>
+      </c>
+      <c r="D61">
+        <v>0.8</v>
+      </c>
+      <c r="E61">
+        <v>0.8</v>
+      </c>
+      <c r="F61">
+        <v>0.457</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>0.193</v>
+      </c>
+      <c r="C62">
+        <v>0.29</v>
+      </c>
+      <c r="D62">
+        <v>0.8</v>
+      </c>
+      <c r="E62">
+        <v>0.955</v>
+      </c>
+      <c r="F62">
+        <v>0.459</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>0.2</v>
+      </c>
+      <c r="C63">
+        <v>0.026</v>
+      </c>
+      <c r="D63">
+        <v>0.8</v>
+      </c>
+      <c r="E63">
+        <v>0.981</v>
+      </c>
+      <c r="F63">
+        <v>0.258</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>0.04</v>
+      </c>
+      <c r="C64">
+        <v>0.003</v>
+      </c>
+      <c r="D64">
+        <v>0.964</v>
+      </c>
+      <c r="E64">
+        <v>0.8</v>
+      </c>
+      <c r="F64">
+        <v>0.271</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>0.255</v>
+      </c>
+      <c r="C65">
+        <v>0.358</v>
+      </c>
+      <c r="D65">
+        <v>0.9409999999999999</v>
+      </c>
+      <c r="E65">
+        <v>0.8</v>
+      </c>
+      <c r="F65">
+        <v>0.535</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>0.104</v>
+      </c>
+      <c r="C66">
+        <v>0.289</v>
+      </c>
+      <c r="D66">
+        <v>0.8</v>
+      </c>
+      <c r="E66">
+        <v>0.8</v>
+      </c>
+      <c r="F66">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>0.13</v>
+      </c>
+      <c r="C67">
+        <v>0.354</v>
+      </c>
+      <c r="D67">
+        <v>0.8</v>
+      </c>
+      <c r="E67">
+        <v>0.8</v>
+      </c>
+      <c r="F67">
+        <v>0.469</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>0.111</v>
+      </c>
+      <c r="C68">
+        <v>0.2</v>
+      </c>
+      <c r="D68">
+        <v>0.8</v>
+      </c>
+      <c r="E68">
+        <v>0.8</v>
+      </c>
+      <c r="F68">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>0.239</v>
+      </c>
+      <c r="C69">
+        <v>0.217</v>
+      </c>
+      <c r="D69">
+        <v>0.8</v>
+      </c>
+      <c r="E69">
+        <v>0.8</v>
+      </c>
+      <c r="F69">
+        <v>0.499</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>0.303</v>
+      </c>
+      <c r="C70">
+        <v>0.187</v>
+      </c>
+      <c r="D70">
+        <v>0.978</v>
+      </c>
+      <c r="E70">
+        <v>0.8</v>
+      </c>
+      <c r="F70">
+        <v>0.494</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>0.111</v>
+      </c>
+      <c r="C71">
+        <v>0.468</v>
+      </c>
+      <c r="D71">
+        <v>0.987</v>
+      </c>
+      <c r="E71">
+        <v>0.8</v>
+      </c>
+      <c r="F71">
+        <v>0.493</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>0.089</v>
+      </c>
+      <c r="C72">
+        <v>0.444</v>
+      </c>
+      <c r="D72">
+        <v>0.8</v>
+      </c>
+      <c r="E72">
+        <v>0.8</v>
+      </c>
+      <c r="F72">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>0.131</v>
+      </c>
+      <c r="C73">
+        <v>0.452</v>
+      </c>
+      <c r="D73">
+        <v>0.737</v>
+      </c>
+      <c r="E73">
+        <v>0.8</v>
+      </c>
+      <c r="F73">
+        <v>0.484</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>0.324</v>
+      </c>
+      <c r="C74">
+        <v>0.431</v>
+      </c>
+      <c r="D74">
+        <v>0.8</v>
+      </c>
+      <c r="E74">
+        <v>0.981</v>
+      </c>
+      <c r="F74">
+        <v>0.6830000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>0.243</v>
+      </c>
+      <c r="C75">
+        <v>0.392</v>
+      </c>
+      <c r="D75">
+        <v>0.8</v>
+      </c>
+      <c r="E75">
+        <v>0.838</v>
+      </c>
+      <c r="F75">
+        <v>0.6870000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>0.361</v>
+      </c>
+      <c r="C76">
+        <v>0.431</v>
+      </c>
+      <c r="D76">
+        <v>0.8</v>
+      </c>
+      <c r="E76">
+        <v>0.8</v>
+      </c>
+      <c r="F76">
+        <v>0.494</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>0.246</v>
+      </c>
+      <c r="C77">
+        <v>0.523</v>
+      </c>
+      <c r="D77">
+        <v>0.8</v>
+      </c>
+      <c r="E77">
+        <v>0.8</v>
+      </c>
+      <c r="F77">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>0.31</v>
+      </c>
+      <c r="C78">
+        <v>0.517</v>
+      </c>
+      <c r="D78">
+        <v>0.8</v>
+      </c>
+      <c r="E78">
+        <v>0.871</v>
+      </c>
+      <c r="F78">
+        <v>0.603</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>0.363</v>
+      </c>
+      <c r="C79">
+        <v>0.528</v>
+      </c>
+      <c r="D79">
+        <v>0.8</v>
+      </c>
+      <c r="E79">
+        <v>0.8</v>
+      </c>
+      <c r="F79">
+        <v>0.537</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>0.245</v>
+      </c>
+      <c r="C80">
+        <v>0.368</v>
+      </c>
+      <c r="D80">
+        <v>0.8</v>
+      </c>
+      <c r="E80">
+        <v>0.876</v>
+      </c>
+      <c r="F80">
+        <v>0.535</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>0.232</v>
+      </c>
+      <c r="C81">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="D81">
+        <v>0.8</v>
+      </c>
+      <c r="E81">
+        <v>0.854</v>
+      </c>
+      <c r="F81">
+        <v>0.659</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>0.36</v>
+      </c>
+      <c r="C82">
+        <v>0.574</v>
+      </c>
+      <c r="D82">
+        <v>0.8</v>
+      </c>
+      <c r="E82">
+        <v>0.8</v>
+      </c>
+      <c r="F82">
+        <v>0.655</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>0.372</v>
+      </c>
+      <c r="C83">
+        <v>0.482</v>
+      </c>
+      <c r="D83">
+        <v>0.869</v>
+      </c>
+      <c r="E83">
+        <v>0.8</v>
+      </c>
+      <c r="F83">
+        <v>0.787</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>0.448</v>
+      </c>
+      <c r="C84">
+        <v>0.544</v>
+      </c>
+      <c r="D84">
+        <v>0.8</v>
+      </c>
+      <c r="E84">
+        <v>0.8</v>
+      </c>
+      <c r="F84">
+        <v>0.774</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>0.473</v>
+      </c>
+      <c r="C85">
+        <v>0.485</v>
+      </c>
+      <c r="D85">
+        <v>0.8</v>
+      </c>
+      <c r="E85">
+        <v>0.8</v>
+      </c>
+      <c r="F85">
+        <v>0.592</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>0.444</v>
+      </c>
+      <c r="C86">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="D86">
+        <v>0.8</v>
+      </c>
+      <c r="E86">
+        <v>0.8</v>
+      </c>
+      <c r="F86">
+        <v>0.734</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>0.378</v>
+      </c>
+      <c r="C87">
+        <v>0.551</v>
+      </c>
+      <c r="D87">
+        <v>0.8</v>
+      </c>
+      <c r="E87">
+        <v>0.8</v>
+      </c>
+      <c r="F87">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>0.353</v>
+      </c>
+      <c r="C88">
+        <v>0.5679999999999999</v>
+      </c>
+      <c r="D88">
+        <v>0.834</v>
+      </c>
+      <c r="E88">
+        <v>0.8</v>
+      </c>
+      <c r="F88">
+        <v>0.629</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>0.444</v>
+      </c>
+      <c r="C89">
+        <v>0.427</v>
+      </c>
+      <c r="D89">
+        <v>0.825</v>
+      </c>
+      <c r="E89">
+        <v>0.8</v>
+      </c>
+      <c r="F89">
+        <v>0.628</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>0.454</v>
+      </c>
+      <c r="C90">
+        <v>0.377</v>
+      </c>
+      <c r="D90">
+        <v>0.8</v>
+      </c>
+      <c r="E90">
+        <v>0.8</v>
+      </c>
+      <c r="F90">
+        <v>0.795</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>0.472</v>
+      </c>
+      <c r="C91">
+        <v>0.367</v>
+      </c>
+      <c r="D91">
+        <v>0.986</v>
+      </c>
+      <c r="E91">
+        <v>0.8</v>
+      </c>
+      <c r="F91">
+        <v>0.787</v>
       </c>
     </row>
   </sheetData>
@@ -3054,7 +5134,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3442,19 +5522,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.255</v>
+        <v>0.2</v>
       </c>
       <c r="C20">
-        <v>0.889</v>
+        <v>0.248</v>
       </c>
       <c r="D20">
-        <v>0.2</v>
+        <v>0.865</v>
       </c>
       <c r="E20">
-        <v>0.499</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="F20">
-        <v>0.383</v>
+        <v>0.371</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3462,19 +5542,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.549</v>
+        <v>0.107</v>
       </c>
       <c r="C21">
-        <v>0.403</v>
+        <v>0.2</v>
       </c>
       <c r="D21">
-        <v>0.229</v>
+        <v>0.507</v>
       </c>
       <c r="E21">
-        <v>0.352</v>
+        <v>0.407</v>
       </c>
       <c r="F21">
-        <v>0.303</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3482,19 +5562,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.194</v>
+        <v>0.2</v>
       </c>
       <c r="C22">
-        <v>0.175</v>
+        <v>0.26</v>
       </c>
       <c r="D22">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="E22">
-        <v>0.642</v>
+        <v>0.8</v>
       </c>
       <c r="F22">
-        <v>0.285</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3502,19 +5582,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.322</v>
+        <v>0.121</v>
       </c>
       <c r="C23">
         <v>0.2</v>
       </c>
       <c r="D23">
-        <v>0.242</v>
+        <v>0.8</v>
       </c>
       <c r="E23">
-        <v>0.301</v>
+        <v>0.8</v>
       </c>
       <c r="F23">
-        <v>0.272</v>
+        <v>0.265</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3522,19 +5602,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.466</v>
+        <v>0.2</v>
       </c>
       <c r="C24">
         <v>0.2</v>
       </c>
       <c r="D24">
-        <v>0.175</v>
+        <v>0.8</v>
       </c>
       <c r="E24">
-        <v>0.392</v>
+        <v>0.487</v>
       </c>
       <c r="F24">
-        <v>0.27</v>
+        <v>0.266</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3542,19 +5622,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.282</v>
+        <v>0.2</v>
       </c>
       <c r="C25">
         <v>0.2</v>
       </c>
       <c r="D25">
-        <v>0.473</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="E25">
-        <v>0.545</v>
+        <v>0.8</v>
       </c>
       <c r="F25">
-        <v>0.276</v>
+        <v>0.259</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3562,19 +5642,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.31</v>
+        <v>0.122</v>
       </c>
       <c r="C26">
         <v>0.2</v>
       </c>
       <c r="D26">
-        <v>0.325</v>
+        <v>0.645</v>
       </c>
       <c r="E26">
-        <v>0.339</v>
+        <v>0.486</v>
       </c>
       <c r="F26">
-        <v>0.276</v>
+        <v>0.259</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3582,19 +5662,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.333</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="C27">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="D27">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="E27">
-        <v>0.318</v>
+        <v>0.432</v>
       </c>
       <c r="F27">
-        <v>0.277</v>
+        <v>0.266</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3602,19 +5682,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.489</v>
+        <v>0.2</v>
       </c>
       <c r="C28">
-        <v>0.634</v>
+        <v>0.2</v>
       </c>
       <c r="D28">
-        <v>0.793</v>
+        <v>0.992</v>
       </c>
       <c r="E28">
-        <v>0.894</v>
+        <v>0.8</v>
       </c>
       <c r="F28">
-        <v>0.269</v>
+        <v>0.264</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3622,19 +5702,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.347</v>
+        <v>0.2</v>
       </c>
       <c r="C29">
-        <v>0.87</v>
+        <v>0.203</v>
       </c>
       <c r="D29">
-        <v>0.824</v>
+        <v>0.8</v>
       </c>
       <c r="E29">
-        <v>0.8</v>
+        <v>0.98</v>
       </c>
       <c r="F29">
-        <v>0.07000000000000001</v>
+        <v>0.106</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3642,19 +5722,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.714</v>
+        <v>0.198</v>
       </c>
       <c r="C30">
-        <v>0.904</v>
+        <v>0.2</v>
       </c>
       <c r="D30">
         <v>0.8</v>
       </c>
       <c r="E30">
-        <v>0.8</v>
+        <v>0.909</v>
       </c>
       <c r="F30">
-        <v>0.32</v>
+        <v>0.07099999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3662,19 +5742,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.267</v>
+        <v>0.2</v>
       </c>
       <c r="C31">
-        <v>0.92</v>
+        <v>0.198</v>
       </c>
       <c r="D31">
-        <v>0.956</v>
+        <v>0.8</v>
       </c>
       <c r="E31">
         <v>0.8</v>
       </c>
       <c r="F31">
-        <v>0.156</v>
+        <v>0.403</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3682,10 +5762,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.426</v>
+        <v>0.211</v>
       </c>
       <c r="C32">
-        <v>0.186</v>
+        <v>0.2</v>
       </c>
       <c r="D32">
         <v>0.8</v>
@@ -3694,7 +5774,7 @@
         <v>0.8</v>
       </c>
       <c r="F32">
-        <v>0.383</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3702,19 +5782,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.604</v>
+        <v>0.2</v>
       </c>
       <c r="C33">
-        <v>0.311</v>
+        <v>0.2</v>
       </c>
       <c r="D33">
         <v>0.8</v>
       </c>
       <c r="E33">
-        <v>0.8</v>
+        <v>0.929</v>
       </c>
       <c r="F33">
-        <v>0.411</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3722,10 +5802,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.372</v>
+        <v>0.2</v>
       </c>
       <c r="C34">
-        <v>0.263</v>
+        <v>0.2</v>
       </c>
       <c r="D34">
         <v>0.8</v>
@@ -3734,7 +5814,7 @@
         <v>0.8</v>
       </c>
       <c r="F34">
-        <v>0.059</v>
+        <v>0.323</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3742,19 +5822,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.405</v>
+        <v>0.208</v>
       </c>
       <c r="C35">
-        <v>0.506</v>
+        <v>0.2</v>
       </c>
       <c r="D35">
         <v>0.8</v>
       </c>
       <c r="E35">
-        <v>0.8</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="F35">
-        <v>0.029</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3762,16 +5842,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.432</v>
+        <v>0.162</v>
       </c>
       <c r="C36">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="D36">
-        <v>0.856</v>
+        <v>0.8</v>
       </c>
       <c r="E36">
-        <v>0.8</v>
+        <v>0.927</v>
       </c>
       <c r="F36">
         <v>0.2</v>
@@ -3782,10 +5862,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.626</v>
+        <v>0.2</v>
       </c>
       <c r="C37">
-        <v>0.874</v>
+        <v>0.2</v>
       </c>
       <c r="D37">
         <v>0.8</v>
@@ -3794,7 +5874,7 @@
         <v>0.8</v>
       </c>
       <c r="F37">
-        <v>0.328</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -3802,10 +5882,10 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.899</v>
+        <v>0.2</v>
       </c>
       <c r="C38">
-        <v>0.926</v>
+        <v>0.165</v>
       </c>
       <c r="D38">
         <v>0.8</v>
@@ -3814,7 +5894,7 @@
         <v>0.8</v>
       </c>
       <c r="F38">
-        <v>0.2</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -3822,10 +5902,10 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.829</v>
+        <v>0.275</v>
       </c>
       <c r="C39">
-        <v>0.8</v>
+        <v>0.011</v>
       </c>
       <c r="D39">
         <v>0.8</v>
@@ -3834,7 +5914,7 @@
         <v>0.8</v>
       </c>
       <c r="F39">
-        <v>0.332</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -3842,10 +5922,10 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.912</v>
+        <v>0.2</v>
       </c>
       <c r="C40">
-        <v>0.8</v>
+        <v>0.159</v>
       </c>
       <c r="D40">
         <v>0.8</v>
@@ -3854,7 +5934,7 @@
         <v>0.8</v>
       </c>
       <c r="F40">
-        <v>0.136</v>
+        <v>0.465</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -3862,10 +5942,10 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.882</v>
+        <v>0.27</v>
       </c>
       <c r="C41">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="D41">
         <v>0.8</v>
@@ -3874,7 +5954,7 @@
         <v>0.8</v>
       </c>
       <c r="F41">
-        <v>0.434</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -3882,10 +5962,10 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.847</v>
+        <v>0.2</v>
       </c>
       <c r="C42">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="D42">
         <v>0.8</v>
@@ -3894,7 +5974,7 @@
         <v>0.8</v>
       </c>
       <c r="F42">
-        <v>0.471</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -3902,10 +5982,10 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.89</v>
+        <v>0.2</v>
       </c>
       <c r="C43">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="D43">
         <v>0.8</v>
@@ -3914,7 +5994,7 @@
         <v>0.8</v>
       </c>
       <c r="F43">
-        <v>0.019</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -3922,10 +6002,10 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.882</v>
+        <v>0.268</v>
       </c>
       <c r="C44">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="D44">
         <v>0.8</v>
@@ -3934,7 +6014,7 @@
         <v>0.8</v>
       </c>
       <c r="F44">
-        <v>0.2</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -3942,10 +6022,10 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.876</v>
+        <v>0.276</v>
       </c>
       <c r="C45">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="D45">
         <v>0.8</v>
@@ -3954,7 +6034,7 @@
         <v>0.8</v>
       </c>
       <c r="F45">
-        <v>0.056</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -3962,10 +6042,10 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.839</v>
+        <v>0.2</v>
       </c>
       <c r="C46">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="D46">
         <v>0.8</v>
@@ -3974,7 +6054,907 @@
         <v>0.8</v>
       </c>
       <c r="F46">
-        <v>0.366</v>
+        <v>0.048</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="C47">
+        <v>0.21</v>
+      </c>
+      <c r="D47">
+        <v>0.8</v>
+      </c>
+      <c r="E47">
+        <v>0.89</v>
+      </c>
+      <c r="F47">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>0.32</v>
+      </c>
+      <c r="C48">
+        <v>0.265</v>
+      </c>
+      <c r="D48">
+        <v>0.8</v>
+      </c>
+      <c r="E48">
+        <v>0.8</v>
+      </c>
+      <c r="F48">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>0.2</v>
+      </c>
+      <c r="C49">
+        <v>0.216</v>
+      </c>
+      <c r="D49">
+        <v>0.8</v>
+      </c>
+      <c r="E49">
+        <v>0.8</v>
+      </c>
+      <c r="F49">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>0.309</v>
+      </c>
+      <c r="C50">
+        <v>0.2</v>
+      </c>
+      <c r="D50">
+        <v>0.8</v>
+      </c>
+      <c r="E50">
+        <v>0.8</v>
+      </c>
+      <c r="F50">
+        <v>0.218</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>0.114</v>
+      </c>
+      <c r="C51">
+        <v>0.2</v>
+      </c>
+      <c r="D51">
+        <v>0.8</v>
+      </c>
+      <c r="E51">
+        <v>0.8</v>
+      </c>
+      <c r="F51">
+        <v>0.245</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>0.001</v>
+      </c>
+      <c r="C52">
+        <v>0.2</v>
+      </c>
+      <c r="D52">
+        <v>0.8</v>
+      </c>
+      <c r="E52">
+        <v>0.8</v>
+      </c>
+      <c r="F52">
+        <v>0.405</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>0.31</v>
+      </c>
+      <c r="C53">
+        <v>0.036</v>
+      </c>
+      <c r="D53">
+        <v>0.8</v>
+      </c>
+      <c r="E53">
+        <v>0.8</v>
+      </c>
+      <c r="F53">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>0.345</v>
+      </c>
+      <c r="C54">
+        <v>0.2</v>
+      </c>
+      <c r="D54">
+        <v>0.8</v>
+      </c>
+      <c r="E54">
+        <v>0.8</v>
+      </c>
+      <c r="F54">
+        <v>0.064</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>0.2</v>
+      </c>
+      <c r="C55">
+        <v>0.2</v>
+      </c>
+      <c r="D55">
+        <v>0.8</v>
+      </c>
+      <c r="E55">
+        <v>0.8</v>
+      </c>
+      <c r="F55">
+        <v>0.082</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>0.157</v>
+      </c>
+      <c r="C56">
+        <v>0.254</v>
+      </c>
+      <c r="D56">
+        <v>0.8</v>
+      </c>
+      <c r="E56">
+        <v>0.78</v>
+      </c>
+      <c r="F56">
+        <v>0.324</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>0.192</v>
+      </c>
+      <c r="C57">
+        <v>0.343</v>
+      </c>
+      <c r="D57">
+        <v>0.8</v>
+      </c>
+      <c r="E57">
+        <v>0.999</v>
+      </c>
+      <c r="F57">
+        <v>0.363</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>0.037</v>
+      </c>
+      <c r="C58">
+        <v>0.256</v>
+      </c>
+      <c r="D58">
+        <v>0.8</v>
+      </c>
+      <c r="E58">
+        <v>0.8</v>
+      </c>
+      <c r="F58">
+        <v>0.473</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>0.191</v>
+      </c>
+      <c r="C59">
+        <v>0.2</v>
+      </c>
+      <c r="D59">
+        <v>0.8</v>
+      </c>
+      <c r="E59">
+        <v>0.8</v>
+      </c>
+      <c r="F59">
+        <v>0.398</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>0.168</v>
+      </c>
+      <c r="C60">
+        <v>0.2</v>
+      </c>
+      <c r="D60">
+        <v>0.8</v>
+      </c>
+      <c r="E60">
+        <v>0.96</v>
+      </c>
+      <c r="F60">
+        <v>0.373</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>0.126</v>
+      </c>
+      <c r="C61">
+        <v>0.2</v>
+      </c>
+      <c r="D61">
+        <v>0.8</v>
+      </c>
+      <c r="E61">
+        <v>0.8</v>
+      </c>
+      <c r="F61">
+        <v>0.457</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>0.193</v>
+      </c>
+      <c r="C62">
+        <v>0.29</v>
+      </c>
+      <c r="D62">
+        <v>0.8</v>
+      </c>
+      <c r="E62">
+        <v>0.955</v>
+      </c>
+      <c r="F62">
+        <v>0.459</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>0.2</v>
+      </c>
+      <c r="C63">
+        <v>0.026</v>
+      </c>
+      <c r="D63">
+        <v>0.8</v>
+      </c>
+      <c r="E63">
+        <v>0.981</v>
+      </c>
+      <c r="F63">
+        <v>0.258</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>0.04</v>
+      </c>
+      <c r="C64">
+        <v>0.003</v>
+      </c>
+      <c r="D64">
+        <v>0.964</v>
+      </c>
+      <c r="E64">
+        <v>0.8</v>
+      </c>
+      <c r="F64">
+        <v>0.271</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>0.255</v>
+      </c>
+      <c r="C65">
+        <v>0.358</v>
+      </c>
+      <c r="D65">
+        <v>0.9409999999999999</v>
+      </c>
+      <c r="E65">
+        <v>0.8</v>
+      </c>
+      <c r="F65">
+        <v>0.535</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>0.104</v>
+      </c>
+      <c r="C66">
+        <v>0.289</v>
+      </c>
+      <c r="D66">
+        <v>0.8</v>
+      </c>
+      <c r="E66">
+        <v>0.8</v>
+      </c>
+      <c r="F66">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>0.13</v>
+      </c>
+      <c r="C67">
+        <v>0.354</v>
+      </c>
+      <c r="D67">
+        <v>0.8</v>
+      </c>
+      <c r="E67">
+        <v>0.8</v>
+      </c>
+      <c r="F67">
+        <v>0.469</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>0.111</v>
+      </c>
+      <c r="C68">
+        <v>0.2</v>
+      </c>
+      <c r="D68">
+        <v>0.8</v>
+      </c>
+      <c r="E68">
+        <v>0.8</v>
+      </c>
+      <c r="F68">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>0.239</v>
+      </c>
+      <c r="C69">
+        <v>0.217</v>
+      </c>
+      <c r="D69">
+        <v>0.8</v>
+      </c>
+      <c r="E69">
+        <v>0.8</v>
+      </c>
+      <c r="F69">
+        <v>0.499</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>0.303</v>
+      </c>
+      <c r="C70">
+        <v>0.187</v>
+      </c>
+      <c r="D70">
+        <v>0.978</v>
+      </c>
+      <c r="E70">
+        <v>0.8</v>
+      </c>
+      <c r="F70">
+        <v>0.494</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>0.111</v>
+      </c>
+      <c r="C71">
+        <v>0.468</v>
+      </c>
+      <c r="D71">
+        <v>0.987</v>
+      </c>
+      <c r="E71">
+        <v>0.8</v>
+      </c>
+      <c r="F71">
+        <v>0.493</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>0.089</v>
+      </c>
+      <c r="C72">
+        <v>0.444</v>
+      </c>
+      <c r="D72">
+        <v>0.8</v>
+      </c>
+      <c r="E72">
+        <v>0.8</v>
+      </c>
+      <c r="F72">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>0.131</v>
+      </c>
+      <c r="C73">
+        <v>0.452</v>
+      </c>
+      <c r="D73">
+        <v>0.737</v>
+      </c>
+      <c r="E73">
+        <v>0.8</v>
+      </c>
+      <c r="F73">
+        <v>0.484</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>0.324</v>
+      </c>
+      <c r="C74">
+        <v>0.431</v>
+      </c>
+      <c r="D74">
+        <v>0.8</v>
+      </c>
+      <c r="E74">
+        <v>0.981</v>
+      </c>
+      <c r="F74">
+        <v>0.6830000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>0.243</v>
+      </c>
+      <c r="C75">
+        <v>0.392</v>
+      </c>
+      <c r="D75">
+        <v>0.8</v>
+      </c>
+      <c r="E75">
+        <v>0.838</v>
+      </c>
+      <c r="F75">
+        <v>0.6870000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>0.361</v>
+      </c>
+      <c r="C76">
+        <v>0.431</v>
+      </c>
+      <c r="D76">
+        <v>0.8</v>
+      </c>
+      <c r="E76">
+        <v>0.8</v>
+      </c>
+      <c r="F76">
+        <v>0.494</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>0.246</v>
+      </c>
+      <c r="C77">
+        <v>0.523</v>
+      </c>
+      <c r="D77">
+        <v>0.8</v>
+      </c>
+      <c r="E77">
+        <v>0.8</v>
+      </c>
+      <c r="F77">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>0.31</v>
+      </c>
+      <c r="C78">
+        <v>0.517</v>
+      </c>
+      <c r="D78">
+        <v>0.8</v>
+      </c>
+      <c r="E78">
+        <v>0.871</v>
+      </c>
+      <c r="F78">
+        <v>0.603</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>0.363</v>
+      </c>
+      <c r="C79">
+        <v>0.528</v>
+      </c>
+      <c r="D79">
+        <v>0.8</v>
+      </c>
+      <c r="E79">
+        <v>0.8</v>
+      </c>
+      <c r="F79">
+        <v>0.537</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>0.245</v>
+      </c>
+      <c r="C80">
+        <v>0.368</v>
+      </c>
+      <c r="D80">
+        <v>0.8</v>
+      </c>
+      <c r="E80">
+        <v>0.876</v>
+      </c>
+      <c r="F80">
+        <v>0.535</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>0.232</v>
+      </c>
+      <c r="C81">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="D81">
+        <v>0.8</v>
+      </c>
+      <c r="E81">
+        <v>0.854</v>
+      </c>
+      <c r="F81">
+        <v>0.659</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>0.36</v>
+      </c>
+      <c r="C82">
+        <v>0.574</v>
+      </c>
+      <c r="D82">
+        <v>0.8</v>
+      </c>
+      <c r="E82">
+        <v>0.8</v>
+      </c>
+      <c r="F82">
+        <v>0.655</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>0.372</v>
+      </c>
+      <c r="C83">
+        <v>0.482</v>
+      </c>
+      <c r="D83">
+        <v>0.869</v>
+      </c>
+      <c r="E83">
+        <v>0.8</v>
+      </c>
+      <c r="F83">
+        <v>0.787</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>0.448</v>
+      </c>
+      <c r="C84">
+        <v>0.544</v>
+      </c>
+      <c r="D84">
+        <v>0.8</v>
+      </c>
+      <c r="E84">
+        <v>0.8</v>
+      </c>
+      <c r="F84">
+        <v>0.774</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>0.473</v>
+      </c>
+      <c r="C85">
+        <v>0.485</v>
+      </c>
+      <c r="D85">
+        <v>0.8</v>
+      </c>
+      <c r="E85">
+        <v>0.8</v>
+      </c>
+      <c r="F85">
+        <v>0.592</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>0.444</v>
+      </c>
+      <c r="C86">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="D86">
+        <v>0.8</v>
+      </c>
+      <c r="E86">
+        <v>0.8</v>
+      </c>
+      <c r="F86">
+        <v>0.734</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>0.378</v>
+      </c>
+      <c r="C87">
+        <v>0.551</v>
+      </c>
+      <c r="D87">
+        <v>0.8</v>
+      </c>
+      <c r="E87">
+        <v>0.8</v>
+      </c>
+      <c r="F87">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>0.353</v>
+      </c>
+      <c r="C88">
+        <v>0.5679999999999999</v>
+      </c>
+      <c r="D88">
+        <v>0.834</v>
+      </c>
+      <c r="E88">
+        <v>0.8</v>
+      </c>
+      <c r="F88">
+        <v>0.629</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>0.444</v>
+      </c>
+      <c r="C89">
+        <v>0.427</v>
+      </c>
+      <c r="D89">
+        <v>0.825</v>
+      </c>
+      <c r="E89">
+        <v>0.8</v>
+      </c>
+      <c r="F89">
+        <v>0.628</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>0.454</v>
+      </c>
+      <c r="C90">
+        <v>0.377</v>
+      </c>
+      <c r="D90">
+        <v>0.8</v>
+      </c>
+      <c r="E90">
+        <v>0.8</v>
+      </c>
+      <c r="F90">
+        <v>0.795</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>0.472</v>
+      </c>
+      <c r="C91">
+        <v>0.367</v>
+      </c>
+      <c r="D91">
+        <v>0.986</v>
+      </c>
+      <c r="E91">
+        <v>0.8</v>
+      </c>
+      <c r="F91">
+        <v>0.787</v>
       </c>
     </row>
   </sheetData>
@@ -3984,7 +6964,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B91"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4072,7 +7052,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5629999999999999</v>
+        <v>0.463</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4080,7 +7060,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.395</v>
+        <v>0.498</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4088,7 +7068,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.539</v>
+        <v>0.263</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4096,7 +7076,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.503</v>
+        <v>0.304</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4104,7 +7084,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.448</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4112,7 +7092,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.535</v>
+        <v>0.422</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4120,7 +7100,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5669999999999999</v>
+        <v>0.384</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4128,7 +7108,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.539</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4136,7 +7116,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.224</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4144,7 +7124,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.445</v>
+        <v>0.473</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4152,7 +7132,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.367</v>
+        <v>0.303</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4160,7 +7140,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.299</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4168,7 +7148,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.267</v>
+        <v>0.437</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4176,7 +7156,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.301</v>
+        <v>0.391</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4184,7 +7164,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.355</v>
+        <v>0.429</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4192,7 +7172,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.29</v>
+        <v>0.342</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4200,7 +7180,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.386</v>
+        <v>0.357</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4208,7 +7188,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.616</v>
+        <v>0.491</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4216,7 +7196,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.582</v>
+        <v>0.458</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4224,7 +7204,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.708</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4232,7 +7212,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.62</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -4240,7 +7220,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.519</v>
+        <v>0.427</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4248,7 +7228,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.585</v>
+        <v>0.428</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4256,7 +7236,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.459</v>
+        <v>0.465</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4264,7 +7244,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.508</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -4272,7 +7252,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.618</v>
+        <v>0.458</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -4280,7 +7260,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.6860000000000001</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -4288,7 +7268,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.725</v>
+        <v>0.396</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4296,7 +7276,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.712</v>
+        <v>0.382</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4304,7 +7284,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.6899999999999999</v>
+        <v>0.485</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4312,7 +7292,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.743</v>
+        <v>0.437</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -4320,7 +7300,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.744</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4328,7 +7308,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.662</v>
+        <v>0.474</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -4336,7 +7316,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.696</v>
+        <v>0.489</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -4344,7 +7324,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.666</v>
+        <v>0.422</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -4352,7 +7332,367 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.721</v>
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>0.418</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>0.465</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>0.497</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>0.465</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>0.432</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>0.441</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>0.471</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>0.442</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>0.416</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>0.463</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>0.539</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>0.473</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>0.478</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>0.477</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>0.539</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>0.453</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>0.416</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>0.578</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>0.511</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>0.511</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>0.492</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>0.511</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>0.552</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>0.572</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>0.523</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>0.521</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>0.644</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>0.592</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>0.577</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>0.604</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>0.606</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>0.5649999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>0.621</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>0.638</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>0.662</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>0.673</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>0.668</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>0.648</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>0.637</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>0.645</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>0.6820000000000001</v>
       </c>
     </row>
   </sheetData>
